--- a/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{513A2465-3061-4874-BB04-B073309594F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{450570AD-D41C-4C3A-8838-0516579AB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E566F173-58C4-4C98-9451-241DBDA2E6AE}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B86BF6BB-9250-4633-B1C2-4A75B13C56C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,204 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
     <t>9,44%</t>
   </si>
   <si>
@@ -172,181 +349,49 @@
     <t>42,43%</t>
   </si>
   <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>8,89%</t>
@@ -430,54 +475,171 @@
     <t>42,94%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
   </si>
   <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
     <t>11,92%</t>
   </si>
   <si>
@@ -553,166 +715,43 @@
     <t>38,39%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>7,64%</t>
@@ -796,48 +835,132 @@
     <t>39,54%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 47,13%)</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>4,35%</t>
   </si>
   <si>
@@ -919,127 +1042,34 @@
     <t>48,9%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>4,85%</t>
@@ -1118,36 +1148,6 @@
   </si>
   <si>
     <t>49,08%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3020F440-FB8A-4BBB-B70E-850BCEED98E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E4CED5-A56E-4C66-9650-C13872E3602A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1929,10 +1929,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>26397</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1944,34 +1944,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>23368</v>
+        <v>605</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>605</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>76</v>
-      </c>
-      <c r="N10" s="7">
-        <v>49765</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,49 +1980,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>143498</v>
+        <v>647</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1327</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1974</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>196</v>
-      </c>
-      <c r="I11" s="7">
-        <v>131872</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>409</v>
-      </c>
-      <c r="N11" s="7">
-        <v>275370</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,49 +2031,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>105701</v>
+        <v>4320</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
+        <v>6</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3973</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>12</v>
+      </c>
+      <c r="N12" s="7">
+        <v>8293</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>156</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106282</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>316</v>
-      </c>
-      <c r="N12" s="7">
-        <v>211982</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,49 +2082,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>680</v>
+        <v>27386</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45</v>
+      </c>
+      <c r="I13" s="7">
+        <v>30078</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>87</v>
+      </c>
+      <c r="N13" s="7">
+        <v>57464</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1279</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1958</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,49 +2133,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7">
-        <v>3245</v>
+        <v>33713</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="7">
+        <v>29</v>
+      </c>
+      <c r="I14" s="7">
+        <v>20059</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2804</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>80</v>
+      </c>
+      <c r="N14" s="7">
+        <v>53771</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6049</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,102 +2184,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>419</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
-        <v>279521</v>
+        <v>66066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>265603</v>
+        <v>56042</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>813</v>
+        <v>183</v>
       </c>
       <c r="N15" s="7">
-        <v>545124</v>
+        <v>122107</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>4320</v>
+        <v>680</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1279</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1958</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3973</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M16" s="7">
-        <v>12</v>
-      </c>
-      <c r="N16" s="7">
-        <v>8293</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,49 +2288,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>27386</v>
+        <v>3245</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2804</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6049</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30078</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M17" s="7">
-        <v>87</v>
-      </c>
-      <c r="N17" s="7">
-        <v>57464</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2339,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>33713</v>
+        <v>26397</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="7">
+        <v>36</v>
+      </c>
+      <c r="I18" s="7">
+        <v>23368</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>76</v>
+      </c>
+      <c r="N18" s="7">
+        <v>49765</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="7">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7">
-        <v>20059</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M18" s="7">
-        <v>80</v>
-      </c>
-      <c r="N18" s="7">
-        <v>53771</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,49 +2390,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>143498</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="7">
+        <v>196</v>
+      </c>
+      <c r="I19" s="7">
+        <v>131872</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>409</v>
+      </c>
+      <c r="N19" s="7">
+        <v>275370</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>605</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>605</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,40 +2441,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="D20" s="7">
-        <v>647</v>
+        <v>105701</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>156</v>
+      </c>
+      <c r="I20" s="7">
+        <v>106282</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1327</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>99</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>316</v>
       </c>
       <c r="N20" s="7">
-        <v>1974</v>
+        <v>211982</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>100</v>
@@ -2492,49 +2492,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>419</v>
       </c>
       <c r="D21" s="7">
-        <v>66066</v>
+        <v>279521</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="I21" s="7">
-        <v>56042</v>
+        <v>265603</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>183</v>
+        <v>813</v>
       </c>
       <c r="N21" s="7">
-        <v>122107</v>
+        <v>545124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,49 +2545,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>30717</v>
+        <v>680</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H22" s="7">
-        <v>42</v>
-      </c>
-      <c r="I22" s="7">
-        <v>27341</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2563</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M22" s="7">
-        <v>88</v>
-      </c>
-      <c r="N22" s="7">
-        <v>58057</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,49 +2596,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>170885</v>
+        <v>3893</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4130</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="7">
-        <v>241</v>
-      </c>
-      <c r="I23" s="7">
-        <v>161950</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8023</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="M23" s="7">
-        <v>496</v>
-      </c>
-      <c r="N23" s="7">
-        <v>332835</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,49 +2647,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="D24" s="7">
-        <v>139413</v>
+        <v>30717</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="7">
+        <v>42</v>
+      </c>
+      <c r="I24" s="7">
+        <v>27341</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="7">
-        <v>185</v>
-      </c>
-      <c r="I24" s="7">
-        <v>126340</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>88</v>
+      </c>
+      <c r="N24" s="7">
+        <v>58057</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="M24" s="7">
-        <v>396</v>
-      </c>
-      <c r="N24" s="7">
-        <v>265754</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,49 +2698,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="D25" s="7">
-        <v>680</v>
+        <v>170885</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="7">
+        <v>241</v>
+      </c>
+      <c r="I25" s="7">
+        <v>161950</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1884</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>496</v>
+      </c>
+      <c r="N25" s="7">
+        <v>332835</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2563</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,46 +2749,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>211</v>
       </c>
       <c r="D26" s="7">
-        <v>3893</v>
+        <v>139413</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>185</v>
+      </c>
+      <c r="I26" s="7">
+        <v>126340</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="7">
-        <v>6</v>
-      </c>
-      <c r="I26" s="7">
-        <v>4130</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>396</v>
+      </c>
+      <c r="N26" s="7">
+        <v>265754</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M26" s="7">
-        <v>12</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8023</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>144</v>
@@ -2806,13 +2806,13 @@
         <v>345587</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>477</v>
@@ -2821,13 +2821,13 @@
         <v>321645</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>996</v>
@@ -2836,13 +2836,13 @@
         <v>667232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA33317-E6DB-4935-A0D8-7C309B540ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A5D332-7CA5-4093-AC15-08770F9A3D4B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3251,40 +3251,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>22533</v>
+        <v>1357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>22087</v>
+        <v>627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>44619</v>
+        <v>1983</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>150</v>
@@ -3302,49 +3302,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>197</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>135990</v>
+        <v>654</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="7">
-        <v>199</v>
-      </c>
-      <c r="I11" s="7">
-        <v>139454</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>654</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M11" s="7">
-        <v>396</v>
-      </c>
-      <c r="N11" s="7">
-        <v>275444</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,49 +3353,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>97887</v>
+        <v>2770</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3560</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6329</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H12" s="7">
-        <v>119</v>
-      </c>
-      <c r="I12" s="7">
-        <v>82358</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12" s="7">
-        <v>264</v>
-      </c>
-      <c r="N12" s="7">
-        <v>180245</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,49 +3404,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>3910</v>
+        <v>35119</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="7">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>37454</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>102</v>
+      </c>
+      <c r="N13" s="7">
+        <v>72573</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1881</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>5791</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,49 +3455,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>4721</v>
+        <v>26275</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>42</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30329</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3528</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>78</v>
+      </c>
+      <c r="N14" s="7">
+        <v>56604</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M14" s="7">
-        <v>12</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8249</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,102 +3506,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="D15" s="7">
-        <v>265040</v>
+        <v>66174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7">
-        <v>249309</v>
+        <v>71969</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>745</v>
+        <v>193</v>
       </c>
       <c r="N15" s="7">
-        <v>514349</v>
+        <v>138143</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>2770</v>
+        <v>3910</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1881</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3560</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>8</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5791</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="7">
-        <v>9</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6329</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,49 +3610,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>35119</v>
+        <v>4721</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3528</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>12</v>
+      </c>
+      <c r="N17" s="7">
+        <v>8249</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>37454</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="7">
-        <v>102</v>
-      </c>
-      <c r="N17" s="7">
-        <v>72573</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,49 +3661,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>26275</v>
+        <v>22533</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="7">
+        <v>30</v>
+      </c>
+      <c r="I18" s="7">
+        <v>22087</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" s="7">
+        <v>65</v>
+      </c>
+      <c r="N18" s="7">
+        <v>44619</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H18" s="7">
-        <v>42</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30329</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M18" s="7">
-        <v>78</v>
-      </c>
-      <c r="N18" s="7">
-        <v>56604</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,49 +3712,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="D19" s="7">
-        <v>1357</v>
+        <v>135990</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="7">
+        <v>199</v>
+      </c>
+      <c r="I19" s="7">
+        <v>139454</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="7">
+        <v>396</v>
+      </c>
+      <c r="N19" s="7">
+        <v>275444</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>627</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1983</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,46 +3763,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D20" s="7">
-        <v>654</v>
+        <v>97887</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="7">
+        <v>119</v>
+      </c>
+      <c r="I20" s="7">
+        <v>82358</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>264</v>
+      </c>
+      <c r="N20" s="7">
+        <v>180245</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>654</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>224</v>
@@ -3814,49 +3814,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="D21" s="7">
-        <v>66174</v>
+        <v>265040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="I21" s="7">
-        <v>71969</v>
+        <v>249309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>193</v>
+        <v>745</v>
       </c>
       <c r="N21" s="7">
-        <v>138143</v>
+        <v>514349</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,10 +3867,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>25302</v>
+        <v>5267</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>225</v>
@@ -3879,37 +3879,37 @@
         <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2508</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="7">
-        <v>35</v>
-      </c>
-      <c r="I22" s="7">
-        <v>25646</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>11</v>
+      </c>
+      <c r="N22" s="7">
+        <v>7775</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="M22" s="7">
-        <v>74</v>
-      </c>
-      <c r="N22" s="7">
-        <v>50948</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +3918,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>171109</v>
+        <v>5374</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3528</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>13</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8903</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H23" s="7">
-        <v>252</v>
-      </c>
-      <c r="I23" s="7">
-        <v>176908</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M23" s="7">
-        <v>498</v>
-      </c>
-      <c r="N23" s="7">
-        <v>348016</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>242</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +3969,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>124162</v>
+        <v>25302</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24" s="7">
+        <v>35</v>
+      </c>
+      <c r="I24" s="7">
+        <v>25646</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>74</v>
+      </c>
+      <c r="N24" s="7">
+        <v>50948</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H24" s="7">
-        <v>161</v>
-      </c>
-      <c r="I24" s="7">
-        <v>112687</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M24" s="7">
-        <v>342</v>
-      </c>
-      <c r="N24" s="7">
-        <v>236850</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,49 +4020,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>246</v>
       </c>
       <c r="D25" s="7">
-        <v>5267</v>
+        <v>171109</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="7">
         <v>252</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>176908</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M25" s="7">
+        <v>498</v>
+      </c>
+      <c r="N25" s="7">
+        <v>348016</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2508</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M25" s="7">
-        <v>11</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7775</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,49 +4071,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="D26" s="7">
-        <v>5374</v>
+        <v>124162</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>100</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>161</v>
+      </c>
+      <c r="I26" s="7">
+        <v>112687</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3528</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>342</v>
+      </c>
+      <c r="N26" s="7">
+        <v>236850</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="M26" s="7">
-        <v>13</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8903</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4128,13 +4128,13 @@
         <v>331214</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>456</v>
@@ -4143,13 +4143,13 @@
         <v>321278</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>938</v>
@@ -4158,13 +4158,13 @@
         <v>652492</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +4183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F904925D-06AE-4976-B5C7-11C6E83B25BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96228044-4AE9-4C28-87B6-E8B596415034}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4573,49 +4573,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>12212</v>
+        <v>653</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H10" s="7">
-        <v>30</v>
-      </c>
-      <c r="I10" s="7">
-        <v>21322</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>653</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M10" s="7">
-        <v>47</v>
-      </c>
-      <c r="N10" s="7">
-        <v>33533</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,49 +4624,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>132013</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>120195</v>
+        <v>564</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>252208</v>
+        <v>564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,49 +4675,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>131578</v>
+        <v>5234</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H12" s="7">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="I12" s="7">
-        <v>116722</v>
+        <v>5438</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>248300</v>
+        <v>10672</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +4726,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>717</v>
+        <v>32156</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>1409</v>
+        <v>45416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>2127</v>
+        <v>77571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +4777,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7">
-        <v>4492</v>
+        <v>40342</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="7">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40095</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4889</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>119</v>
+      </c>
+      <c r="N14" s="7">
+        <v>80437</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9381</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,102 +4828,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>380</v>
+        <v>113</v>
       </c>
       <c r="D15" s="7">
-        <v>281012</v>
+        <v>78385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
-        <v>371</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>264537</v>
+        <v>91513</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
-        <v>751</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>545549</v>
+        <v>169898</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>5234</v>
+        <v>717</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5438</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>10672</v>
+        <v>2127</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>65</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,49 +4932,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>32156</v>
+        <v>4492</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I17" s="7">
-        <v>45416</v>
+        <v>4889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>77571</v>
+        <v>9381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,49 +4983,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>40342</v>
+        <v>12212</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I18" s="7">
-        <v>40095</v>
+        <v>21322</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="N18" s="7">
-        <v>80437</v>
+        <v>33533</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,49 +5034,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D19" s="7">
-        <v>653</v>
+        <v>132013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>120195</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="N19" s="7">
-        <v>653</v>
+        <v>252208</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,49 +5085,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>131578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H20" s="7">
+        <v>164</v>
+      </c>
+      <c r="I20" s="7">
+        <v>116722</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>564</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>342</v>
+      </c>
+      <c r="N20" s="7">
+        <v>248300</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>564</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,49 +5136,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>113</v>
+        <v>380</v>
       </c>
       <c r="D21" s="7">
-        <v>78385</v>
+        <v>281012</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>91513</v>
+        <v>264537</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>251</v>
+        <v>751</v>
       </c>
       <c r="N21" s="7">
-        <v>169898</v>
+        <v>545549</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,49 +5189,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>17446</v>
+        <v>1370</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="H22" s="7">
-        <v>38</v>
-      </c>
-      <c r="I22" s="7">
-        <v>26760</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>44206</v>
+        <v>2780</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>340</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,49 +5240,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>164169</v>
+        <v>4492</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5453</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M23" s="7">
+        <v>14</v>
+      </c>
+      <c r="N23" s="7">
+        <v>9946</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="7">
-        <v>236</v>
-      </c>
-      <c r="I23" s="7">
-        <v>165611</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M23" s="7">
-        <v>460</v>
-      </c>
-      <c r="N23" s="7">
-        <v>329779</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,49 +5291,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="D24" s="7">
-        <v>171921</v>
+        <v>17446</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" s="7">
+        <v>38</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26760</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24" s="7">
+        <v>63</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44206</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H24" s="7">
-        <v>225</v>
-      </c>
-      <c r="I24" s="7">
-        <v>156817</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M24" s="7">
-        <v>461</v>
-      </c>
-      <c r="N24" s="7">
-        <v>328738</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,49 +5342,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>224</v>
       </c>
       <c r="D25" s="7">
-        <v>1370</v>
+        <v>164169</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" s="7">
+        <v>236</v>
+      </c>
+      <c r="I25" s="7">
+        <v>165611</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M25" s="7">
+        <v>460</v>
+      </c>
+      <c r="N25" s="7">
+        <v>329779</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1409</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>2780</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,10 +5393,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>236</v>
       </c>
       <c r="D26" s="7">
-        <v>4492</v>
+        <v>171921</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>362</v>
@@ -5408,31 +5408,31 @@
         <v>364</v>
       </c>
       <c r="H26" s="7">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="I26" s="7">
-        <v>5453</v>
+        <v>156817</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>461</v>
+      </c>
+      <c r="N26" s="7">
+        <v>328738</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="M26" s="7">
-        <v>14</v>
-      </c>
-      <c r="N26" s="7">
-        <v>9946</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>369</v>
@@ -5450,13 +5450,13 @@
         <v>359398</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>509</v>
@@ -5465,13 +5465,13 @@
         <v>356050</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1002</v>
@@ -5480,13 +5480,13 @@
         <v>715448</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{450570AD-D41C-4C3A-8838-0516579AB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{255926E8-D5B6-4471-887E-A3FFE4685960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B86BF6BB-9250-4633-B1C2-4A75B13C56C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14C5A471-3FDD-4BC6-A5A5-A649993470BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="372">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -67,1087 +67,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1164,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1254,39 +1260,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1338,7 +1344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1449,13 +1455,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1464,6 +1463,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1528,19 +1534,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E4CED5-A56E-4C66-9650-C13872E3602A}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D462B4F5-A415-49C9-9B58-D150CB703EF6}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1931,47 +1957,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>605</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,49 +2000,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,49 +2045,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7">
-        <v>4320</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
-      </c>
-      <c r="N12" s="7">
-        <v>8293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,49 +2090,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>30078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
-      </c>
-      <c r="N13" s="7">
-        <v>57464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,49 +2135,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7">
-        <v>33713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>29</v>
-      </c>
-      <c r="I14" s="7">
-        <v>20059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>80</v>
-      </c>
-      <c r="N14" s="7">
-        <v>53771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,102 +2180,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66066</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>183</v>
-      </c>
-      <c r="N15" s="7">
-        <v>122107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="D16" s="7">
-        <v>680</v>
+        <v>57277</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>1279</v>
+        <v>48027</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>1958</v>
+        <v>105303</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,49 +2278,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="D17" s="7">
-        <v>3245</v>
+        <v>70898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="I17" s="7">
-        <v>2804</v>
+        <v>69214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="N17" s="7">
-        <v>6049</v>
+        <v>140112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,49 +2329,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>10794</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="7">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7722</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="7">
-        <v>26397</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="7">
-        <v>36</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23368</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="M18" s="7">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>49765</v>
+        <v>18516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,49 +2380,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>213</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>143498</v>
+        <v>1867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
-        <v>196</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>131872</v>
+        <v>1980</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>409</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>275370</v>
+        <v>3848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,49 +2431,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>105701</v>
+        <v>680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>106282</v>
+        <v>605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>316</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>211982</v>
+        <v>1285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,10 +2482,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>419</v>
+        <v>212</v>
       </c>
       <c r="D21" s="7">
-        <v>279521</v>
+        <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -2507,10 +2497,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I21" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -2522,10 +2512,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>813</v>
+        <v>403</v>
       </c>
       <c r="N21" s="7">
-        <v>545124</v>
+        <v>269063</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -2539,55 +2529,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D22" s="7">
-        <v>680</v>
+        <v>82137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="I22" s="7">
-        <v>1884</v>
+        <v>78313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>239</v>
       </c>
       <c r="N22" s="7">
-        <v>2563</v>
+        <v>160450</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,49 +2586,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="D23" s="7">
-        <v>3893</v>
+        <v>99987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="I23" s="7">
-        <v>4130</v>
+        <v>92736</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="N23" s="7">
-        <v>8023</v>
+        <v>192723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,49 +2637,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>30717</v>
+        <v>19923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I24" s="7">
-        <v>27341</v>
+        <v>19619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="M24" s="7">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="N24" s="7">
-        <v>58057</v>
+        <v>39542</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,49 +2688,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>170885</v>
+        <v>2026</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
-        <v>241</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>161950</v>
+        <v>2150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
-        <v>496</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>332835</v>
+        <v>4175</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,49 +2739,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>139413</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>126340</v>
+        <v>1279</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
-        <v>396</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>265754</v>
+        <v>1279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,55 +2790,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>307</v>
+      </c>
+      <c r="D27" s="7">
+        <v>204072</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>286</v>
+      </c>
+      <c r="I27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>398169</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>211</v>
+      </c>
+      <c r="D28" s="7">
+        <v>139413</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>185</v>
+      </c>
+      <c r="I28" s="7">
+        <v>126340</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>396</v>
+      </c>
+      <c r="N28" s="7">
+        <v>265754</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>255</v>
+      </c>
+      <c r="D29" s="7">
+        <v>170885</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>161950</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>496</v>
+      </c>
+      <c r="N29" s="7">
+        <v>332835</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>46</v>
+      </c>
+      <c r="D30" s="7">
+        <v>30717</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>42</v>
+      </c>
+      <c r="I30" s="7">
+        <v>27341</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>88</v>
+      </c>
+      <c r="N30" s="7">
+        <v>58057</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3893</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4130</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8023</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>680</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1884</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2563</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>519</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>345587</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>477</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321645</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>996</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>667232</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2861,8 +3165,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A5D332-7CA5-4093-AC15-08770F9A3D4B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716CE33-1896-45A2-B1D6-A29193B1D2C1}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2878,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3251,49 +3555,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1357</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,49 +3600,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>654</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,49 +3645,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
-      </c>
-      <c r="N12" s="7">
-        <v>6329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,49 +3690,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
-        <v>35119</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37454</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
-      </c>
-      <c r="N13" s="7">
-        <v>72573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,49 +3735,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
-      </c>
-      <c r="D14" s="7">
-        <v>26275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30329</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
-      </c>
-      <c r="N14" s="7">
-        <v>56604</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,102 +3780,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>92</v>
-      </c>
-      <c r="D15" s="7">
-        <v>66174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>101</v>
-      </c>
-      <c r="I15" s="7">
-        <v>71969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>193</v>
-      </c>
-      <c r="N15" s="7">
-        <v>138143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D16" s="7">
-        <v>3910</v>
+        <v>61897</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="I16" s="7">
-        <v>1881</v>
+        <v>64271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="N16" s="7">
-        <v>5791</v>
+        <v>126168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,49 +3878,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
-        <v>4721</v>
+        <v>78409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>115</v>
       </c>
       <c r="I17" s="7">
-        <v>3528</v>
+        <v>81546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="N17" s="7">
-        <v>8249</v>
+        <v>159955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,49 +3929,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>22533</v>
+        <v>10657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>22087</v>
+        <v>7736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>44619</v>
+        <v>18393</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,49 +3980,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>135990</v>
+        <v>2413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>139454</v>
+        <v>1335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
-        <v>396</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>275444</v>
+        <v>3747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,49 +4031,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>97887</v>
+        <v>3298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>82358</v>
+        <v>627</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>180245</v>
+        <v>3925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,10 +4082,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>390</v>
+        <v>225</v>
       </c>
       <c r="D21" s="7">
-        <v>265040</v>
+        <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -3829,10 +4097,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>249309</v>
+        <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -3844,10 +4112,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>745</v>
+        <v>446</v>
       </c>
       <c r="N21" s="7">
-        <v>514349</v>
+        <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -3861,55 +4129,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7">
-        <v>5267</v>
+        <v>62265</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="I22" s="7">
-        <v>2508</v>
+        <v>48416</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="N22" s="7">
-        <v>7775</v>
+        <v>110681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +4186,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D23" s="7">
-        <v>5374</v>
+        <v>92700</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="I23" s="7">
-        <v>3528</v>
+        <v>95361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="N23" s="7">
-        <v>8903</v>
+        <v>188061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,49 +4237,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>25302</v>
+        <v>14645</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="H24" s="7">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I24" s="7">
-        <v>25646</v>
+        <v>17910</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="M24" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>50948</v>
+        <v>32555</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,49 +4288,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>246</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>171109</v>
+        <v>2962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="H25" s="7">
-        <v>252</v>
+        <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>176908</v>
+        <v>2194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>44</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="M25" s="7">
-        <v>498</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>348016</v>
+        <v>5156</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,49 +4339,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>124162</v>
+        <v>1968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>257</v>
+        <v>91</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="H26" s="7">
-        <v>161</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>112687</v>
+        <v>1881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="M26" s="7">
-        <v>342</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>236850</v>
+        <v>3850</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,55 +4390,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>257</v>
+      </c>
+      <c r="D27" s="7">
+        <v>174540</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>235</v>
+      </c>
+      <c r="I27" s="7">
+        <v>165763</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>492</v>
+      </c>
+      <c r="N27" s="7">
+        <v>340303</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>181</v>
+      </c>
+      <c r="D28" s="7">
+        <v>124162</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="7">
+        <v>161</v>
+      </c>
+      <c r="I28" s="7">
+        <v>112687</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M28" s="7">
+        <v>342</v>
+      </c>
+      <c r="N28" s="7">
+        <v>236850</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>246</v>
+      </c>
+      <c r="D29" s="7">
+        <v>171109</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H29" s="7">
+        <v>252</v>
+      </c>
+      <c r="I29" s="7">
+        <v>176908</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M29" s="7">
+        <v>498</v>
+      </c>
+      <c r="N29" s="7">
+        <v>348016</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>39</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25302</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="7">
+        <v>35</v>
+      </c>
+      <c r="I30" s="7">
+        <v>25646</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" s="7">
+        <v>74</v>
+      </c>
+      <c r="N30" s="7">
+        <v>50948</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5374</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3528</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8903</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5267</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2508</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M32" s="7">
+        <v>11</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7775</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>482</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>331214</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>456</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>321278</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>938</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>652492</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4183,8 +4765,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96228044-4AE9-4C28-87B6-E8B596415034}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE948C6-B728-4D67-A18E-CC45818AE37C}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4200,7 +4782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4573,49 +5155,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,47 +5202,41 @@
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>564</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,49 +5245,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5438</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,49 +5290,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
-      </c>
-      <c r="D13" s="7">
-        <v>32156</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
-      </c>
-      <c r="I13" s="7">
-        <v>45416</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
-      </c>
-      <c r="N13" s="7">
-        <v>77571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,49 +5335,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
-      </c>
-      <c r="D14" s="7">
-        <v>40342</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
-      </c>
-      <c r="I14" s="7">
-        <v>40095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>119</v>
-      </c>
-      <c r="N14" s="7">
-        <v>80437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4828,102 +5380,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>113</v>
-      </c>
-      <c r="D15" s="7">
-        <v>78385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>138</v>
-      </c>
-      <c r="I15" s="7">
-        <v>91513</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>251</v>
-      </c>
-      <c r="N15" s="7">
-        <v>169898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>717</v>
+        <v>94152</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="I16" s="7">
-        <v>1409</v>
+        <v>90559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="N16" s="7">
-        <v>2127</v>
+        <v>184711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,49 +5478,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7">
-        <v>4492</v>
+        <v>76900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7">
-        <v>4889</v>
+        <v>83348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>225</v>
       </c>
       <c r="N17" s="7">
-        <v>9381</v>
+        <v>160247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4983,49 +5529,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>12212</v>
+        <v>10358</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="H18" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I18" s="7">
-        <v>21322</v>
+        <v>8871</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>33533</v>
+        <v>19229</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,49 +5580,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>132013</v>
+        <v>3186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>120195</v>
+        <v>2568</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
-        <v>346</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>252208</v>
+        <v>5754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,49 +5631,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>131578</v>
+        <v>1370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="H20" s="7">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>116722</v>
+        <v>638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="M20" s="7">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>248300</v>
+        <v>2008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,10 +5682,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>380</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>281012</v>
+        <v>185967</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -5151,10 +5697,10 @@
         <v>58</v>
       </c>
       <c r="H21" s="7">
-        <v>371</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>264537</v>
+        <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -5166,10 +5712,10 @@
         <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>751</v>
+        <v>526</v>
       </c>
       <c r="N21" s="7">
-        <v>545549</v>
+        <v>371949</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5183,55 +5729,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D22" s="7">
-        <v>1370</v>
+        <v>77768</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>299</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="I22" s="7">
-        <v>1409</v>
+        <v>66259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>304</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="N22" s="7">
-        <v>2780</v>
+        <v>144027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,49 +5786,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>4492</v>
+        <v>87269</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="I23" s="7">
-        <v>5453</v>
+        <v>82263</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="M23" s="7">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="N23" s="7">
-        <v>9946</v>
+        <v>169532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,49 +5837,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7088</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
-        <v>17446</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="7">
-        <v>38</v>
-      </c>
       <c r="I24" s="7">
-        <v>26760</v>
+        <v>17889</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="M24" s="7">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N24" s="7">
-        <v>44206</v>
+        <v>24977</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,49 +5888,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>224</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>164169</v>
+        <v>1306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>354</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>165611</v>
+        <v>2885</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>356</v>
+        <v>210</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
-        <v>460</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>329779</v>
+        <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>360</v>
+        <v>51</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>361</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,49 +5939,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>171921</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>362</v>
+        <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>363</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
-        <v>225</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>156817</v>
+        <v>772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>55</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>365</v>
+        <v>53</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
-        <v>461</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>328738</v>
+        <v>772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>53</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,55 +5990,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>173431</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="7">
+        <v>242</v>
+      </c>
+      <c r="I27" s="7">
+        <v>170068</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="7">
+        <v>476</v>
+      </c>
+      <c r="N27" s="7">
+        <v>343499</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>236</v>
+      </c>
+      <c r="D28" s="7">
+        <v>171921</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H28" s="7">
+        <v>225</v>
+      </c>
+      <c r="I28" s="7">
+        <v>156817</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M28" s="7">
+        <v>461</v>
+      </c>
+      <c r="N28" s="7">
+        <v>328738</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>224</v>
+      </c>
+      <c r="D29" s="7">
+        <v>164169</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="7">
+        <v>236</v>
+      </c>
+      <c r="I29" s="7">
+        <v>165611</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="7">
+        <v>460</v>
+      </c>
+      <c r="N29" s="7">
+        <v>329779</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>25</v>
+      </c>
+      <c r="D30" s="7">
+        <v>17446</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H30" s="7">
+        <v>38</v>
+      </c>
+      <c r="I30" s="7">
+        <v>26760</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M30" s="7">
+        <v>63</v>
+      </c>
+      <c r="N30" s="7">
+        <v>44206</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>6</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4492</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>5453</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M31" s="7">
+        <v>14</v>
+      </c>
+      <c r="N31" s="7">
+        <v>9946</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2780</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>493</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>359398</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="7">
         <v>509</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>356050</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="7">
         <v>1002</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>715448</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>58</v>
+      <c r="O33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{255926E8-D5B6-4471-887E-A3FFE4685960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6873E22-030C-4782-B2A4-655BA9A71E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14C5A471-3FDD-4BC6-A5A5-A649993470BC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32965911-5D7B-4A23-A14E-2FAAA03933DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="376">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -97,61 +97,64 @@
     <t>40,47%</t>
   </si>
   <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
   </si>
   <si>
     <t>37,65%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
   </si>
   <si>
     <t>39,14%</t>
   </si>
   <si>
-    <t>43,47%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>54,26%</t>
   </si>
   <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
   </si>
   <si>
     <t>52,07%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
   </si>
   <si>
     <t>6,05%</t>
@@ -160,16 +163,16 @@
     <t>3,23%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>10,03%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>1,32%</t>
@@ -178,16 +181,16 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>3,63%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>1,43%</t>
@@ -196,964 +199,973 @@
     <t>0,48%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>1,16%</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D462B4F5-A415-49C9-9B58-D150CB703EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA8CB6-C2C9-4D50-BFBC-C96B50371503}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2266,10 +2278,10 @@
         <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2296,13 @@
         <v>70898</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>104</v>
@@ -2299,13 +2311,13 @@
         <v>69214</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>210</v>
@@ -2314,13 +2326,13 @@
         <v>140112</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2347,13 @@
         <v>10794</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -2350,13 +2362,13 @@
         <v>7722</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -2365,13 +2377,13 @@
         <v>18516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2398,13 @@
         <v>1867</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2401,13 +2413,13 @@
         <v>1980</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -2416,13 +2428,13 @@
         <v>3848</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2449,13 @@
         <v>680</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2452,13 +2464,13 @@
         <v>605</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2467,13 +2479,13 @@
         <v>1285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2500,13 @@
         <v>141515</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>191</v>
@@ -2503,13 +2515,13 @@
         <v>127548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -2518,18 +2530,18 @@
         <v>269063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2541,13 +2553,13 @@
         <v>82137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
         <v>114</v>
@@ -2556,13 +2568,13 @@
         <v>78313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -2571,13 +2583,13 @@
         <v>160450</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2604,13 @@
         <v>99987</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -2607,13 +2619,13 @@
         <v>92736</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
         <v>286</v>
@@ -2622,13 +2634,13 @@
         <v>192723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2655,13 @@
         <v>19923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
@@ -2658,13 +2670,13 @@
         <v>19619</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -2673,13 +2685,13 @@
         <v>39542</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2706,13 @@
         <v>2026</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2709,13 +2721,13 @@
         <v>2150</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2724,10 +2736,10 @@
         <v>4175</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>95</v>
@@ -2745,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>96</v>
@@ -2763,7 +2775,7 @@
         <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>99</v>
@@ -2778,7 +2790,7 @@
         <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>101</v>
@@ -2796,13 +2808,13 @@
         <v>204072</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>286</v>
@@ -2811,13 +2823,13 @@
         <v>194097</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2826,13 +2838,13 @@
         <v>398169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2867,7 @@
         <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="H28" s="7">
         <v>185</v>
@@ -2864,13 +2876,13 @@
         <v>126340</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -2879,13 +2891,13 @@
         <v>265754</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2912,13 @@
         <v>170885</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>241</v>
@@ -2915,13 +2927,13 @@
         <v>161950</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M29" s="7">
         <v>496</v>
@@ -2930,13 +2942,13 @@
         <v>332835</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2963,13 @@
         <v>30717</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H30" s="7">
         <v>42</v>
@@ -2966,13 +2978,13 @@
         <v>27341</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M30" s="7">
         <v>88</v>
@@ -2981,13 +2993,13 @@
         <v>58057</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3014,13 @@
         <v>3893</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -3017,13 +3029,13 @@
         <v>4130</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3032,10 +3044,10 @@
         <v>8023</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>134</v>
@@ -3056,7 +3068,7 @@
         <v>135</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>136</v>
@@ -3068,13 +3080,13 @@
         <v>1884</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3083,13 +3095,13 @@
         <v>2563</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3116,13 @@
         <v>345587</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>477</v>
@@ -3119,13 +3131,13 @@
         <v>321645</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>996</v>
@@ -3134,18 +3146,18 @@
         <v>667232</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716CE33-1896-45A2-B1D6-A29193B1D2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B77BBEC-3910-47E9-8BAD-1D18FB586E98}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3833,13 +3845,13 @@
         <v>61897</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -3848,13 +3860,13 @@
         <v>64271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" s="7">
         <v>182</v>
@@ -3863,13 +3875,13 @@
         <v>126168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3896,13 @@
         <v>78409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <v>115</v>
@@ -3899,13 +3911,13 @@
         <v>81546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -3914,13 +3926,13 @@
         <v>159955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,13 +3947,13 @@
         <v>10657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -3950,13 +3962,13 @@
         <v>7736</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>27</v>
@@ -3965,13 +3977,13 @@
         <v>18393</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3998,13 @@
         <v>2413</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4001,13 +4013,13 @@
         <v>1335</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4016,7 +4028,7 @@
         <v>3747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>175</v>
@@ -4055,7 +4067,7 @@
         <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>181</v>
@@ -4070,10 +4082,10 @@
         <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4100,13 @@
         <v>156674</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -4103,13 +4115,13 @@
         <v>155514</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -4118,18 +4130,18 @@
         <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4141,13 +4153,13 @@
         <v>62265</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -4156,13 +4168,13 @@
         <v>48416</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>160</v>
@@ -4171,13 +4183,13 @@
         <v>110681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4204,13 @@
         <v>92700</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>137</v>
@@ -4207,13 +4219,13 @@
         <v>95361</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>273</v>
@@ -4222,13 +4234,13 @@
         <v>188061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4255,13 @@
         <v>14645</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H24" s="7">
         <v>24</v>
@@ -4258,13 +4270,13 @@
         <v>17910</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -4273,13 +4285,13 @@
         <v>32555</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4306,13 @@
         <v>2962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4309,13 +4321,13 @@
         <v>2194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4324,13 +4336,13 @@
         <v>5156</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4357,13 @@
         <v>1968</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -4360,13 +4372,13 @@
         <v>1881</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4375,13 +4387,13 @@
         <v>3850</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4408,13 @@
         <v>174540</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>235</v>
@@ -4411,13 +4423,13 @@
         <v>165763</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>492</v>
@@ -4426,13 +4438,13 @@
         <v>340303</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4461,13 @@
         <v>124162</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H28" s="7">
         <v>161</v>
@@ -4464,13 +4476,13 @@
         <v>112687</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>342</v>
@@ -4479,13 +4491,13 @@
         <v>236850</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4512,13 @@
         <v>171109</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="H29" s="7">
         <v>252</v>
@@ -4515,13 +4527,13 @@
         <v>176908</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>498</v>
@@ -4530,13 +4542,13 @@
         <v>348016</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4563,13 @@
         <v>25302</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -4566,13 +4578,13 @@
         <v>25646</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -4581,13 +4593,13 @@
         <v>50948</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4614,13 @@
         <v>5374</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4617,13 +4629,13 @@
         <v>3528</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -4632,13 +4644,13 @@
         <v>8903</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4665,13 @@
         <v>5267</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4668,13 +4680,13 @@
         <v>2508</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>135</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4683,13 +4695,13 @@
         <v>7775</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4716,13 @@
         <v>331214</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>456</v>
@@ -4719,13 +4731,13 @@
         <v>321278</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>938</v>
@@ -4734,18 +4746,18 @@
         <v>652492</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE948C6-B728-4D67-A18E-CC45818AE37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E78031-7395-4E8F-9643-9B2B02FA793C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4782,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5433,13 +5445,13 @@
         <v>94152</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>131</v>
@@ -5448,13 +5460,13 @@
         <v>90559</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -5463,13 +5475,13 @@
         <v>184711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5496,13 @@
         <v>76900</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -5499,13 +5511,13 @@
         <v>83348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -5514,13 +5526,13 @@
         <v>160247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5547,13 @@
         <v>10358</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -5550,13 +5562,13 @@
         <v>8871</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -5565,13 +5577,13 @@
         <v>19229</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5598,13 @@
         <v>3186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5601,13 +5613,13 @@
         <v>2568</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5616,13 +5628,13 @@
         <v>5754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5649,13 @@
         <v>1370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5652,13 +5664,13 @@
         <v>638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5667,13 +5679,13 @@
         <v>2008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5700,13 @@
         <v>185967</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>267</v>
@@ -5703,13 +5715,13 @@
         <v>185983</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>526</v>
@@ -5718,18 +5730,18 @@
         <v>371949</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5741,13 +5753,13 @@
         <v>77768</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H22" s="7">
         <v>94</v>
@@ -5756,13 +5768,13 @@
         <v>66259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>199</v>
@@ -5771,13 +5783,13 @@
         <v>144027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5804,13 @@
         <v>87269</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H23" s="7">
         <v>118</v>
@@ -5807,13 +5819,13 @@
         <v>82263</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>235</v>
@@ -5822,13 +5834,13 @@
         <v>169532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5855,13 @@
         <v>7088</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -5858,13 +5870,13 @@
         <v>17889</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -5873,13 +5885,13 @@
         <v>24977</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5906,13 @@
         <v>1306</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>327</v>
+        <v>184</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5909,13 +5921,13 @@
         <v>2885</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5924,13 +5936,13 @@
         <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5957,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5960,13 +5972,13 @@
         <v>772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5975,13 +5987,13 @@
         <v>772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +6008,13 @@
         <v>173431</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>242</v>
@@ -6011,13 +6023,13 @@
         <v>170068</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -6026,13 +6038,13 @@
         <v>343499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6061,13 @@
         <v>171921</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
         <v>225</v>
@@ -6064,13 +6076,13 @@
         <v>156817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M28" s="7">
         <v>461</v>
@@ -6079,13 +6091,13 @@
         <v>328738</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6112,13 @@
         <v>164169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7">
         <v>236</v>
@@ -6115,13 +6127,13 @@
         <v>165611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="M29" s="7">
         <v>460</v>
@@ -6130,13 +6142,13 @@
         <v>329779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6163,13 @@
         <v>17446</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>353</v>
+        <v>40</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H30" s="7">
         <v>38</v>
@@ -6166,13 +6178,13 @@
         <v>26760</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -6181,13 +6193,13 @@
         <v>44206</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6214,13 @@
         <v>4492</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -6217,13 +6229,13 @@
         <v>5453</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6232,13 +6244,13 @@
         <v>9946</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6265,13 @@
         <v>1370</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -6271,10 +6283,10 @@
         <v>180</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6283,13 +6295,13 @@
         <v>2780</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>371</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6316,13 @@
         <v>359398</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>509</v>
@@ -6319,13 +6331,13 @@
         <v>356050</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>1002</v>
@@ -6334,18 +6346,18 @@
         <v>715448</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6873E22-030C-4782-B2A4-655BA9A71E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB3A7A5-9284-49E6-9C43-7EACD71CE8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32965911-5D7B-4A23-A14E-2FAAA03933DC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F674C381-A552-44AD-B5CD-C7981BA3AC26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="373">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1078 +94,1069 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>39,14%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
   </si>
   <si>
     <t>50,1%</t>
   </si>
   <si>
-    <t>43,69%</t>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
   </si>
   <si>
     <t>42,88%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 44,69%)</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 47,13%)</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EA8CB6-C2C9-4D50-BFBC-C96B50371503}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89909A15-7B18-4C70-8BD1-3979C9AC5926}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2239,10 +2230,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>57277</v>
+        <v>48027</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2254,10 +2245,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="I16" s="7">
-        <v>48027</v>
+        <v>57277</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2290,10 +2281,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D17" s="7">
-        <v>70898</v>
+        <v>69214</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2305,10 +2296,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I17" s="7">
-        <v>69214</v>
+        <v>70898</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2341,10 +2332,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>10794</v>
+        <v>7722</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2356,10 +2347,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>7722</v>
+        <v>10794</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2395,7 +2386,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1867</v>
+        <v>1980</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2410,7 +2401,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1980</v>
+        <v>1867</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2446,31 +2437,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>680</v>
+        <v>605</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2479,13 +2470,13 @@
         <v>1285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,34 +2485,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>191</v>
+      </c>
+      <c r="D21" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>212</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>141515</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>191</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127548</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>403</v>
@@ -2530,51 +2521,51 @@
         <v>269063</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7">
+        <v>78313</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="7">
         <v>125</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>82137</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="7">
-        <v>114</v>
-      </c>
-      <c r="I22" s="7">
-        <v>78313</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -2583,13 +2574,13 @@
         <v>160450</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,34 +2589,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>137</v>
+      </c>
+      <c r="D23" s="7">
+        <v>92736</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="7">
         <v>149</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>99987</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="7">
-        <v>137</v>
-      </c>
-      <c r="I23" s="7">
-        <v>92736</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>286</v>
@@ -2634,13 +2625,13 @@
         <v>192723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,31 +2643,31 @@
         <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>19923</v>
+        <v>19619</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" s="7">
         <v>30</v>
       </c>
       <c r="I24" s="7">
-        <v>19619</v>
+        <v>19923</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -2685,13 +2676,13 @@
         <v>39542</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,31 +2694,31 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2026</v>
+        <v>2150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2150</v>
+        <v>2026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2736,13 +2727,13 @@
         <v>4175</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,34 +2742,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1279</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2787,13 +2778,13 @@
         <v>1279</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,34 +2793,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>286</v>
+      </c>
+      <c r="D27" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>307</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>204072</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>286</v>
-      </c>
-      <c r="I27" s="7">
-        <v>194097</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2838,13 +2829,13 @@
         <v>398169</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,34 +2846,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>185</v>
+      </c>
+      <c r="D28" s="7">
+        <v>126340</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="7">
         <v>211</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>139413</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="7">
-        <v>185</v>
-      </c>
-      <c r="I28" s="7">
-        <v>126340</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -2891,13 +2882,13 @@
         <v>265754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,34 +2897,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>241</v>
+      </c>
+      <c r="D29" s="7">
+        <v>161950</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="7">
         <v>255</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>170885</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="7">
-        <v>241</v>
-      </c>
-      <c r="I29" s="7">
-        <v>161950</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M29" s="7">
         <v>496</v>
@@ -2942,13 +2933,13 @@
         <v>332835</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,34 +2948,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>42</v>
+      </c>
+      <c r="D30" s="7">
+        <v>27341</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
         <v>46</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>30717</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H30" s="7">
-        <v>42</v>
-      </c>
-      <c r="I30" s="7">
-        <v>27341</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M30" s="7">
         <v>88</v>
@@ -2993,13 +2984,13 @@
         <v>58057</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,31 +3002,31 @@
         <v>6</v>
       </c>
       <c r="D31" s="7">
-        <v>3893</v>
+        <v>4130</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>4130</v>
+        <v>3893</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -3044,13 +3035,13 @@
         <v>8023</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,34 +3050,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1884</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>680</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1884</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3095,7 +3086,7 @@
         <v>2563</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>141</v>
@@ -3110,34 +3101,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>477</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321645</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>519</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>345587</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>477</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321645</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>996</v>
@@ -3146,13 +3137,13 @@
         <v>667232</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B77BBEC-3910-47E9-8BAD-1D18FB586E98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED41B5F-86B1-471F-A4BE-34BE432BC40A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,10 +3830,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>61897</v>
+        <v>64271</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>145</v>
@@ -3854,10 +3845,10 @@
         <v>147</v>
       </c>
       <c r="H16" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I16" s="7">
-        <v>64271</v>
+        <v>61897</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>148</v>
@@ -3890,10 +3881,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7">
-        <v>78409</v>
+        <v>81546</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>154</v>
@@ -3905,10 +3896,10 @@
         <v>156</v>
       </c>
       <c r="H17" s="7">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7">
-        <v>81546</v>
+        <v>78409</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>157</v>
@@ -3941,10 +3932,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>10657</v>
+        <v>7736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>163</v>
@@ -3956,10 +3947,10 @@
         <v>165</v>
       </c>
       <c r="H18" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
-        <v>7736</v>
+        <v>10657</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>166</v>
@@ -3992,34 +3983,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2413</v>
+        <v>1335</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>173</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>1335</v>
+        <v>2413</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4028,13 +4019,13 @@
         <v>3747</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,34 +4034,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>3298</v>
+        <v>627</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>627</v>
+        <v>3298</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -4079,13 +4070,13 @@
         <v>3925</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,34 +4085,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>221</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155514</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>225</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>156674</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>221</v>
-      </c>
-      <c r="I21" s="7">
-        <v>155514</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>446</v>
@@ -4130,51 +4121,51 @@
         <v>312189</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>69</v>
+      </c>
+      <c r="D22" s="7">
+        <v>48416</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="7">
         <v>91</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>62265</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="7">
-        <v>69</v>
-      </c>
-      <c r="I22" s="7">
-        <v>48416</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" s="7">
         <v>160</v>
@@ -4183,13 +4174,13 @@
         <v>110681</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,34 +4189,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>137</v>
+      </c>
+      <c r="D23" s="7">
+        <v>95361</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="7">
         <v>136</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>92700</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="7">
-        <v>137</v>
-      </c>
-      <c r="I23" s="7">
-        <v>95361</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>273</v>
@@ -4234,13 +4225,13 @@
         <v>188061</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,34 +4240,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17910</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="7">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>14645</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" s="7">
-        <v>24</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17910</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M24" s="7">
         <v>47</v>
@@ -4285,13 +4276,13 @@
         <v>32555</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2962</v>
+        <v>2194</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>213</v>
@@ -4315,19 +4306,19 @@
         <v>214</v>
       </c>
       <c r="H25" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2194</v>
+        <v>2962</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>213</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4339,10 +4330,10 @@
         <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,34 +4342,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1968</v>
+        <v>1881</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>219</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>1881</v>
+        <v>1968</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -4387,13 +4378,13 @@
         <v>3850</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,34 +4393,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>235</v>
+      </c>
+      <c r="D27" s="7">
+        <v>165763</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>257</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>174540</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>235</v>
-      </c>
-      <c r="I27" s="7">
-        <v>165763</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>492</v>
@@ -4438,13 +4429,13 @@
         <v>340303</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,34 +4446,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>161</v>
+      </c>
+      <c r="D28" s="7">
+        <v>112687</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="7">
         <v>181</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>124162</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="7">
-        <v>161</v>
-      </c>
-      <c r="I28" s="7">
-        <v>112687</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M28" s="7">
         <v>342</v>
@@ -4491,13 +4482,13 @@
         <v>236850</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,34 +4497,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>252</v>
+      </c>
+      <c r="D29" s="7">
+        <v>176908</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="7">
         <v>246</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>171109</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="7">
-        <v>252</v>
-      </c>
-      <c r="I29" s="7">
-        <v>176908</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>498</v>
@@ -4542,13 +4533,13 @@
         <v>348016</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,34 +4548,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25646</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="7">
         <v>39</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>25302</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="H30" s="7">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7">
-        <v>25646</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -4593,13 +4584,13 @@
         <v>50948</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,31 +4599,31 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3528</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="7">
         <v>8</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5374</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3528</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>254</v>
@@ -4650,7 +4641,7 @@
         <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,34 +4650,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2508</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" s="7">
         <v>8</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>5267</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2508</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M32" s="7">
         <v>11</v>
@@ -4695,13 +4686,13 @@
         <v>7775</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,34 +4701,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>456</v>
+      </c>
+      <c r="D33" s="7">
+        <v>321278</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>482</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>331214</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>456</v>
-      </c>
-      <c r="I33" s="7">
-        <v>321278</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>938</v>
@@ -4746,13 +4737,13 @@
         <v>652492</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,7 +4768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E78031-7395-4E8F-9643-9B2B02FA793C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AF438D-142A-4672-B691-7ECA643FB80C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5442,31 +5433,31 @@
         <v>131</v>
       </c>
       <c r="D16" s="7">
-        <v>94152</v>
+        <v>90559</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>131</v>
       </c>
       <c r="I16" s="7">
-        <v>90559</v>
+        <v>94152</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -5475,13 +5466,13 @@
         <v>184711</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,34 +5481,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>118</v>
+      </c>
+      <c r="D17" s="7">
+        <v>83348</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" s="7">
         <v>107</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>76900</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H17" s="7">
-        <v>118</v>
-      </c>
-      <c r="I17" s="7">
-        <v>83348</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>225</v>
@@ -5526,13 +5517,13 @@
         <v>160247</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,34 +5532,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>8871</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>10358</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H18" s="7">
-        <v>13</v>
-      </c>
-      <c r="I18" s="7">
-        <v>8871</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>28</v>
@@ -5577,13 +5568,13 @@
         <v>19229</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,31 +5586,31 @@
         <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>3186</v>
+        <v>2568</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>2568</v>
+        <v>3186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>8</v>
@@ -5628,13 +5619,13 @@
         <v>5754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,34 +5634,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>638</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1370</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>638</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5679,13 +5670,13 @@
         <v>2008</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,34 +5685,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>267</v>
+      </c>
+      <c r="D21" s="7">
+        <v>185983</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="7">
         <v>259</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>185967</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>267</v>
-      </c>
-      <c r="I21" s="7">
-        <v>185983</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>526</v>
@@ -5730,51 +5721,51 @@
         <v>371949</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>94</v>
+      </c>
+      <c r="D22" s="7">
+        <v>66259</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H22" s="7">
         <v>105</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>77768</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H22" s="7">
-        <v>94</v>
-      </c>
-      <c r="I22" s="7">
-        <v>66259</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M22" s="7">
         <v>199</v>
@@ -5783,13 +5774,13 @@
         <v>144027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,34 +5789,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>118</v>
+      </c>
+      <c r="D23" s="7">
+        <v>82263</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="7">
         <v>117</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>87269</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H23" s="7">
-        <v>118</v>
-      </c>
-      <c r="I23" s="7">
-        <v>82263</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>235</v>
@@ -5834,13 +5825,13 @@
         <v>169532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,34 +5840,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>17889</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="7">
         <v>10</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>7088</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>17889</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M24" s="7">
         <v>35</v>
@@ -5885,13 +5876,13 @@
         <v>24977</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>210</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,34 +5891,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2885</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1306</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2885</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>331</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -5936,13 +5927,13 @@
         <v>4191</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5951,34 +5942,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>337</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -5987,13 +5978,13 @@
         <v>772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>340</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,34 +5993,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170068</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="7">
         <v>234</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>173431</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
-        <v>242</v>
-      </c>
-      <c r="I27" s="7">
-        <v>170068</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>476</v>
@@ -6038,13 +6029,13 @@
         <v>343499</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,34 +6046,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>225</v>
+      </c>
+      <c r="D28" s="7">
+        <v>156817</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="7">
         <v>236</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>171921</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="J28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H28" s="7">
-        <v>225</v>
-      </c>
-      <c r="I28" s="7">
-        <v>156817</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M28" s="7">
         <v>461</v>
@@ -6091,13 +6082,13 @@
         <v>328738</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,34 +6097,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>236</v>
+      </c>
+      <c r="D29" s="7">
+        <v>165611</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H29" s="7">
         <v>224</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>164169</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H29" s="7">
-        <v>236</v>
-      </c>
-      <c r="I29" s="7">
-        <v>165611</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M29" s="7">
         <v>460</v>
@@ -6142,13 +6133,13 @@
         <v>329779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,34 +6148,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>38</v>
+      </c>
+      <c r="D30" s="7">
+        <v>26760</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" s="7">
         <v>25</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>17446</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="H30" s="7">
-        <v>38</v>
-      </c>
-      <c r="I30" s="7">
-        <v>26760</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M30" s="7">
         <v>63</v>
@@ -6193,13 +6184,13 @@
         <v>44206</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,34 +6199,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>8</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5453</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H31" s="7">
         <v>6</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>4492</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="H31" s="7">
-        <v>8</v>
-      </c>
-      <c r="I31" s="7">
-        <v>5453</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -6244,13 +6235,13 @@
         <v>9946</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,31 +6253,31 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1370</v>
+        <v>1409</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>1409</v>
+        <v>1370</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>180</v>
+        <v>49</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>372</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6295,13 +6286,13 @@
         <v>2780</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,34 +6301,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>509</v>
+      </c>
+      <c r="D33" s="7">
+        <v>356050</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="7">
         <v>493</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>359398</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="7">
-        <v>509</v>
-      </c>
-      <c r="I33" s="7">
-        <v>356050</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>1002</v>
@@ -6346,13 +6337,13 @@
         <v>715448</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
